--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -351,6 +351,87 @@
   <si>
     <t xml:space="preserve">road_to_transit speed (acf)</t>
   </si>
+  <si>
+    <t xml:space="preserve">logit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coût kilométrique de la voiture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waiting_time_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur de perception du temp d'attente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walking_time_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur de perception du temp de marche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preparation_logit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur utilitaire du temps (Pour le calcul du facteur multiplication du temps de la fonction d'utilité)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min/pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur monétaire du temps (Pour le calcul du facteur multiplication du coût de la fonction d'utilité)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facteur multiplicatif de l'utilité associé au mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient du logit des modes PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient du logit du nœud PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient de pénalité de transfert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min/transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step_distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de motorisation</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -412,12 +493,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -503,7 +578,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -580,8 +655,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -836,8 +919,8 @@
     <mergeCell ref="A2:B4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -855,7 +938,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topRight" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -864,7 +947,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="46.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="41.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="12" width="34"/>
@@ -1611,6 +1694,195 @@
       </c>
       <c r="H9" s="18"/>
     </row>
+    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="21" t="n">
+        <v>0.00032</v>
+      </c>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="0"/>
+      <c r="G18" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1672,8 +1944,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -352,6 +352,21 @@
     <t xml:space="preserve">road_to_transit speed (acf)</t>
   </si>
   <si>
+    <t xml:space="preserve">pathfinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode_breaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cutoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longueur maximale des autres itinéraires PT</t>
+  </si>
+  <si>
     <t xml:space="preserve">logit</t>
   </si>
   <si>
@@ -437,8 +452,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -578,7 +594,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,6 +673,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -919,8 +943,8 @@
     <mergeCell ref="A2:B4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -938,7 +962,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topRight" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1694,195 +1718,224 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20" t="s">
+      <c r="F10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="G10" s="20" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="0"/>
-      <c r="G10" s="21" t="n">
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="23" t="n">
         <v>0.00032</v>
       </c>
-      <c r="H10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20" t="s">
+      <c r="H12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="21" t="n">
+      <c r="B13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="23" t="n">
         <v>1.6</v>
       </c>
-      <c r="H11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="21" t="n">
+      <c r="H13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="23" t="n">
         <v>1.3</v>
       </c>
-      <c r="H12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="0"/>
-      <c r="G13" s="21" t="n">
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="0"/>
+      <c r="G15" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="H13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20" t="s">
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="0"/>
-      <c r="G14" s="21" t="n">
+      <c r="B16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="H14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="21" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>74</v>
+      <c r="A17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="20" t="s">
-        <v>75</v>
+      <c r="D17" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="21" t="n">
+      <c r="G17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="H17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="0"/>
-      <c r="G18" s="21" t="n">
+      <c r="H19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="0"/>
+      <c r="G20" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="H18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="H20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G21" s="12" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1935,7 +1988,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="H3:H9">
+  <conditionalFormatting sqref="H3:H11">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>_xlfn.ISFORMULA(#ref!)</formula>
     </cfRule>
@@ -1944,8 +1997,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -439,7 +439,7 @@
     <t xml:space="preserve">min/transfer</t>
   </si>
   <si>
-    <t xml:space="preserve">step_distribution</t>
+    <t xml:space="preserve">generation</t>
   </si>
   <si>
     <t xml:space="preserve">motor_rate</t>
@@ -454,7 +454,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -594,7 +594,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -676,10 +676,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -943,8 +939,8 @@
     <mergeCell ref="A2:B4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -962,7 +958,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topRight" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1744,177 +1740,177 @@
       <c r="D11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="21" t="n">
+      <c r="G11" s="12" t="n">
         <v>6000</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="0"/>
-      <c r="G12" s="23" t="n">
+      <c r="G12" s="22" t="n">
         <v>0.00032</v>
       </c>
       <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="23" t="n">
+      <c r="G13" s="22" t="n">
         <v>1.6</v>
       </c>
       <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="23" t="n">
+      <c r="G14" s="22" t="n">
         <v>1.3</v>
       </c>
       <c r="H14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="0"/>
-      <c r="G15" s="23" t="n">
+      <c r="G15" s="22" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="0"/>
-      <c r="G16" s="23" t="n">
+      <c r="G16" s="22" t="n">
         <v>15</v>
       </c>
       <c r="H16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="23" t="n">
+      <c r="G17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="23" t="n">
+      <c r="G18" s="22" t="n">
         <v>0.5</v>
       </c>
       <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="23" t="n">
+      <c r="G19" s="22" t="n">
         <v>0.1</v>
       </c>
       <c r="H19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="18"/>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="0"/>
-      <c r="G20" s="23" t="n">
+      <c r="G20" s="22" t="n">
         <v>5</v>
       </c>
       <c r="H20" s="0"/>
@@ -1997,8 +1993,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -328,6 +328,18 @@
     <t xml:space="preserve">Vitesse de marche sur les routes</t>
   </si>
   <si>
+    <t xml:space="preserve">network_preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_clusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de zone clusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
     <t xml:space="preserve">zone_to_transit</t>
   </si>
   <si>
@@ -337,30 +349,57 @@
     <t xml:space="preserve">Number of zone_to_transit</t>
   </si>
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zone_to_transit walking speed (acf)</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum length of urban zone_to_transit</t>
   </si>
   <si>
+    <t xml:space="preserve">threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threshold preparation_ntlegs</t>
+  </si>
+  <si>
     <t xml:space="preserve">road_to_transit</t>
   </si>
   <si>
     <t xml:space="preserve">road_to_transit speed (acf)</t>
   </si>
   <si>
+    <t xml:space="preserve">generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux de motorisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop_mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de voyage par personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step_distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_intrazonal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps intrazonal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec</t>
+  </si>
+  <si>
     <t xml:space="preserve">pathfinder</t>
   </si>
   <si>
-    <t xml:space="preserve">mode_breaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool</t>
-  </si>
-  <si>
     <t xml:space="preserve">cutoff</t>
   </si>
   <si>
@@ -437,24 +476,14 @@
   </si>
   <si>
     <t xml:space="preserve">min/transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">motor_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taux de motorisation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -594,7 +623,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,10 +702,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -958,13 +983,13 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topRight" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="33.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="22.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="46.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="17.52"/>
@@ -1640,7 +1665,7 @@
       </c>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -1654,289 +1679,367 @@
         <v>50</v>
       </c>
       <c r="G6" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" s="18"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="D8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G8" s="12" t="n">
         <f aca="false">4/SQRT(2)</f>
         <v>2.82842712474619</v>
       </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="12" t="n">
-        <v>10000000000</v>
-      </c>
       <c r="H8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="12" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="12" t="n">
         <f aca="false">30</f>
         <v>30</v>
       </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="20" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="12" t="n">
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="12" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="12" t="n">
         <v>6000</v>
       </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="0"/>
-      <c r="G12" s="22" t="n">
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="0"/>
+      <c r="G17" s="21" t="n">
         <v>0.00032</v>
       </c>
-      <c r="H12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="0"/>
-      <c r="G15" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="H15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="21" t="s">
+      <c r="H17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="0"/>
-      <c r="G16" s="22" t="n">
-        <v>15</v>
-      </c>
-      <c r="H16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="22" t="n">
-        <v>0.5</v>
+      <c r="G18" s="21" t="n">
+        <v>1.6</v>
       </c>
       <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="22" t="n">
+      <c r="G19" s="21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="0"/>
+      <c r="G20" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="H21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="21" t="n">
         <v>0.1</v>
       </c>
-      <c r="H19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="H24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="0"/>
-      <c r="G20" s="22" t="n">
+      <c r="B25" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="0"/>
+      <c r="G25" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="12" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+    </row>
     <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1984,11 +2087,19 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="H3:H11">
+  <conditionalFormatting sqref="H16 H3:H5 H8:H11">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>_xlfn.ISFORMULA(#ref!)</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>NOT(_xlfn.ISFORMULA(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>_xlfn.ISFORMULA(#ref!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>NOT(_xlfn.ISFORMULA(#ref!))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -404,6 +404,18 @@
   </si>
   <si>
     <t xml:space="preserve">Longueur maximale des autres itinéraires PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode_breaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route_breaker</t>
   </si>
   <si>
     <t xml:space="preserve">logit</t>
@@ -981,9 +993,9 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topRight" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1860,141 +1872,132 @@
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="F17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20" t="s">
+      <c r="G17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="0"/>
-      <c r="G17" s="21" t="n">
-        <v>0.00032</v>
-      </c>
-      <c r="H17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H18" s="0"/>
+      <c r="F18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="0"/>
       <c r="G19" s="21" t="n">
-        <v>1.3</v>
+        <v>0.00032</v>
       </c>
       <c r="H19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="0"/>
-      <c r="G20" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="0"/>
-      <c r="G21" s="21" t="n">
-        <v>15</v>
-      </c>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="F23" s="0"/>
       <c r="G23" s="21" t="n">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="H23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>92</v>
@@ -2006,13 +2009,13 @@
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="21" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>94</v>
@@ -2021,27 +2024,61 @@
       <c r="D25" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="0"/>
-      <c r="G25" s="21" t="n">
+      <c r="C26" s="18"/>
+      <c r="D26" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="H25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-    </row>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+    </row>
     <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2087,7 +2124,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="H16 H3:H5 H8:H11">
+  <conditionalFormatting sqref="H16:H18 H3:H5 H8:H11">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>_xlfn.ISFORMULA(#ref!)</formula>
     </cfRule>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -274,13 +274,13 @@
     <t xml:space="preserve">base</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm</t>
+    <t xml:space="preserve">houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atlanta</t>
   </si>
   <si>
     <t xml:space="preserve">ip</t>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t xml:space="preserve">step_distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix_power_car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix_power_pt</t>
   </si>
   <si>
     <t xml:space="preserve">time_intrazonal</t>
@@ -708,16 +714,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -733,28 +739,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF767171"/>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -772,7 +756,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFD0CECE"/>
-      <rgbColor rgb="FF767171"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFE7E6E6"/>
@@ -990,12 +974,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topRight" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1632,7 +1616,15 @@
       <c r="G3" s="12" t="n">
         <v>500</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
@@ -1654,7 +1646,18 @@
         <f aca="false">4/SQRT(2)</f>
         <v>2.82842712474619</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="12" t="n">
+        <f aca="false">4/SQRT(2)</f>
+        <v>2.82842712474619</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <f aca="false">4/SQRT(2)</f>
+        <v>2.82842712474619</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <f aca="false">4/SQRT(2)</f>
+        <v>2.82842712474619</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
@@ -1663,7 +1666,7 @@
       <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -1675,9 +1678,17 @@
       <c r="G5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -1691,6 +1702,15 @@
         <v>50</v>
       </c>
       <c r="G6" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="J6" s="12" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1710,7 +1730,15 @@
       <c r="G7" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
@@ -1729,7 +1757,18 @@
         <f aca="false">4/SQRT(2)</f>
         <v>2.82842712474619</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="12" t="n">
+        <f aca="false">4/SQRT(2)</f>
+        <v>2.82842712474619</v>
+      </c>
+      <c r="I8" s="12" t="n">
+        <f aca="false">4/SQRT(2)</f>
+        <v>2.82842712474619</v>
+      </c>
+      <c r="J8" s="12" t="n">
+        <f aca="false">4/SQRT(2)</f>
+        <v>2.82842712474619</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
@@ -1747,7 +1786,15 @@
       <c r="G9" s="12" t="n">
         <v>10000000000</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="12" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>10000000000</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
@@ -1765,7 +1812,15 @@
       <c r="G10" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="12" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
@@ -1784,9 +1839,20 @@
         <f aca="false">30</f>
         <v>30</v>
       </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="12" t="n">
+        <f aca="false">30</f>
+        <v>30</v>
+      </c>
+      <c r="I11" s="12" t="n">
+        <f aca="false">30</f>
+        <v>30</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <f aca="false">30</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
         <v>60</v>
       </c>
@@ -1800,10 +1866,19 @@
         <v>41</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1818,6 +1893,15 @@
       </c>
       <c r="G13" s="12" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H13" s="12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,310 +1920,397 @@
       <c r="G14" s="12" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="G15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I15" s="12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J15" s="12" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="G16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I16" s="12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J16" s="12" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="D17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="G17" s="12" t="n">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>6000</v>
-      </c>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I17" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>1200</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <v>10800</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+      <c r="G19" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="H19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="20" t="s">
+      <c r="F20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="0"/>
-      <c r="G19" s="21" t="n">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" s="21" t="n">
         <v>0.00032</v>
       </c>
-      <c r="H19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="21" t="n">
+      <c r="H21" s="21" t="n">
+        <v>0.00032</v>
+      </c>
+      <c r="I21" s="21" t="n">
+        <v>0.00032</v>
+      </c>
+      <c r="J21" s="21" t="n">
+        <v>0.00032</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21" t="n">
         <v>1.6</v>
       </c>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="21" t="n">
+      <c r="H22" s="21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I22" s="21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21" t="n">
         <v>1.3</v>
       </c>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20" t="s">
+      <c r="H23" s="21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I23" s="21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J23" s="21" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="0"/>
-      <c r="G22" s="21" t="n">
+      <c r="C24" s="20"/>
+      <c r="D24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="0"/>
+      <c r="G24" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="H22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="H24" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="I24" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" s="21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="0"/>
-      <c r="G23" s="21" t="n">
+      <c r="C25" s="20"/>
+      <c r="D25" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="0"/>
+      <c r="G25" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="H23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="21" t="n">
+      <c r="H25" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="I25" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="J25" s="21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="H24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="21" t="n">
+      <c r="H26" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="H25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="21" t="n">
+      <c r="H27" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="21" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21" t="n">
         <v>0.1</v>
       </c>
-      <c r="H26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="20" t="s">
+      <c r="H28" s="21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="21" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="0"/>
-      <c r="G27" s="21" t="n">
+      <c r="C29" s="20"/>
+      <c r="D29" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="0"/>
+      <c r="G29" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-    </row>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H29" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" s="21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H16:H18 H3:H5 H8:H11">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>_xlfn.ISFORMULA(#ref!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>NOT(_xlfn.ISFORMULA(#ref!))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>_xlfn.ISFORMULA(#ref!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>NOT(_xlfn.ISFORMULA(#ref!))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
